--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vertex42.com\Documents\VERTEX42\TEMPLATES\TEMPLATE - Gantt Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reuben\Documents\HTCS5607 Assesment\Github\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD68E8B-A387-4742-AE63-A0C7101476C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F3B4D2-9539-4A75-9EA0-B4DE093E34A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="23955" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -455,13 +455,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
-    <t>[Company Name]</t>
-  </si>
-  <si>
     <t>WBS</t>
-  </si>
-  <si>
-    <t>[Project Name] Project Schedule</t>
   </si>
   <si>
     <t>TEMPLATE ROWS</t>
@@ -1537,6 +1531,12 @@
       </rPr>
       <t>+1</t>
     </r>
+  </si>
+  <si>
+    <t>Black Dahlia</t>
+  </si>
+  <si>
+    <t>Black Dahlia Application Project Schedule</t>
   </si>
 </sst>
 </file>
@@ -2887,24 +2887,7 @@
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2912,14 +2895,31 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3752,7 +3752,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3772,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -3780,33 +3780,33 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="131"/>
-      <c r="K1" s="168" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
+      <c r="K1" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3845,196 +3845,196 @@
     <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="109"/>
       <c r="B4" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="170">
+        <v>77</v>
+      </c>
+      <c r="C4" s="168">
         <v>43129</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="128">
         <v>1</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="162" t="str">
+      <c r="K4" s="165" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="162" t="str">
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="165" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="162" t="str">
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="165" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="162" t="str">
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="165" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="162" t="str">
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="166"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="165" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="162" t="str">
+      <c r="AN4" s="166"/>
+      <c r="AO4" s="166"/>
+      <c r="AP4" s="166"/>
+      <c r="AQ4" s="166"/>
+      <c r="AR4" s="166"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="165" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="164"/>
-      <c r="BA4" s="162" t="str">
+      <c r="AU4" s="166"/>
+      <c r="AV4" s="166"/>
+      <c r="AW4" s="166"/>
+      <c r="AX4" s="166"/>
+      <c r="AY4" s="166"/>
+      <c r="AZ4" s="167"/>
+      <c r="BA4" s="165" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="163"/>
-      <c r="BC4" s="163"/>
-      <c r="BD4" s="163"/>
-      <c r="BE4" s="163"/>
-      <c r="BF4" s="163"/>
-      <c r="BG4" s="164"/>
-      <c r="BH4" s="162" t="str">
+      <c r="BB4" s="166"/>
+      <c r="BC4" s="166"/>
+      <c r="BD4" s="166"/>
+      <c r="BE4" s="166"/>
+      <c r="BF4" s="166"/>
+      <c r="BG4" s="167"/>
+      <c r="BH4" s="165" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="163"/>
-      <c r="BJ4" s="163"/>
-      <c r="BK4" s="163"/>
-      <c r="BL4" s="163"/>
-      <c r="BM4" s="163"/>
-      <c r="BN4" s="164"/>
+      <c r="BI4" s="166"/>
+      <c r="BJ4" s="166"/>
+      <c r="BK4" s="166"/>
+      <c r="BL4" s="166"/>
+      <c r="BM4" s="166"/>
+      <c r="BN4" s="167"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+        <v>78</v>
+      </c>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="165">
+      <c r="K5" s="169">
         <f>K6</f>
         <v>43129</v>
       </c>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="165">
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="169">
         <f>R6</f>
         <v>43136</v>
       </c>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="165">
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="169">
         <f>Y6</f>
         <v>43143</v>
       </c>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>43150</v>
       </c>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="165">
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="169">
         <f>AM6</f>
         <v>43157</v>
       </c>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="166"/>
-      <c r="AP5" s="166"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="166"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="165">
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="171"/>
+      <c r="AT5" s="169">
         <f>AT6</f>
         <v>43164</v>
       </c>
-      <c r="AU5" s="166"/>
-      <c r="AV5" s="166"/>
-      <c r="AW5" s="166"/>
-      <c r="AX5" s="166"/>
-      <c r="AY5" s="166"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="165">
+      <c r="AU5" s="170"/>
+      <c r="AV5" s="170"/>
+      <c r="AW5" s="170"/>
+      <c r="AX5" s="170"/>
+      <c r="AY5" s="170"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="169">
         <f>BA6</f>
         <v>43171</v>
       </c>
-      <c r="BB5" s="166"/>
-      <c r="BC5" s="166"/>
-      <c r="BD5" s="166"/>
-      <c r="BE5" s="166"/>
-      <c r="BF5" s="166"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="165">
+      <c r="BB5" s="170"/>
+      <c r="BC5" s="170"/>
+      <c r="BD5" s="170"/>
+      <c r="BE5" s="170"/>
+      <c r="BF5" s="170"/>
+      <c r="BG5" s="171"/>
+      <c r="BH5" s="169">
         <f>BH6</f>
         <v>43178</v>
       </c>
-      <c r="BI5" s="166"/>
-      <c r="BJ5" s="166"/>
-      <c r="BK5" s="166"/>
-      <c r="BL5" s="166"/>
-      <c r="BM5" s="166"/>
-      <c r="BN5" s="167"/>
+      <c r="BI5" s="170"/>
+      <c r="BJ5" s="170"/>
+      <c r="BK5" s="170"/>
+      <c r="BL5" s="170"/>
+      <c r="BM5" s="170"/>
+      <c r="BN5" s="171"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4274,31 +4274,31 @@
     </row>
     <row r="7" spans="1:66" s="123" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="F7" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="119" t="s">
+      <c r="G7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="H7" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="I7" s="117" t="s">
         <v>74</v>
-      </c>
-      <c r="H7" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="117" t="s">
-        <v>76</v>
       </c>
       <c r="J7" s="117"/>
       <c r="K7" s="120" t="str">
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
@@ -4611,10 +4611,10 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="99">
@@ -4698,7 +4698,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="99">
@@ -4782,7 +4782,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="126"/>
       <c r="E11" s="99">
@@ -4866,7 +4866,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="126"/>
       <c r="E12" s="99">
@@ -4950,7 +4950,7 @@
         <v>1.4.1</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="99">
@@ -5034,7 +5034,7 @@
         <v>1.4.2</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" s="126"/>
       <c r="E14" s="99">
@@ -5118,7 +5118,7 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="126"/>
       <c r="E15" s="99">
@@ -5202,7 +5202,7 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="126"/>
       <c r="E16" s="99">
@@ -5286,7 +5286,7 @@
         <v>1.7</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="126"/>
       <c r="E17" s="99">
@@ -5370,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="101"/>
@@ -5448,7 +5448,7 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="126"/>
       <c r="E19" s="99">
@@ -5532,7 +5532,7 @@
         <v>2.2</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="126"/>
       <c r="E20" s="99">
@@ -5616,7 +5616,7 @@
         <v>2.3</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="126"/>
       <c r="E21" s="99">
@@ -5700,7 +5700,7 @@
         <v>2.4</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="126"/>
       <c r="E22" s="99">
@@ -5784,7 +5784,7 @@
         <v>2.5</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="126"/>
       <c r="E23" s="99">
@@ -5868,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="101"/>
@@ -5946,7 +5946,7 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="99">
@@ -6030,7 +6030,7 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="126"/>
       <c r="E26" s="99">
@@ -6114,7 +6114,7 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="126"/>
       <c r="E27" s="99">
@@ -6198,7 +6198,7 @@
         <v>3.4</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="126"/>
       <c r="E28" s="99">
@@ -6282,7 +6282,7 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="126"/>
       <c r="E29" s="99">
@@ -6366,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="101"/>
@@ -6444,7 +6444,7 @@
         <v>4.1</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="99">
@@ -6528,7 +6528,7 @@
         <v>4.2</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="99">
@@ -6612,7 +6612,7 @@
         <v>4.3</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="99">
@@ -6696,7 +6696,7 @@
         <v>4.4</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="99">
@@ -6780,7 +6780,7 @@
         <v>4.5</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="126"/>
       <c r="E35" s="99">
@@ -7002,7 +7002,7 @@
     </row>
     <row r="38" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="70" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="39" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="77"/>
       <c r="D40" s="78"/>
@@ -7225,7 +7225,7 @@
         <v>1.1</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="78"/>
@@ -7304,7 +7304,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="78"/>
@@ -7383,7 +7383,7 @@
         <v>1.1.1.1</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="80"/>
       <c r="D43" s="78"/>
@@ -7457,7 +7457,7 @@
       <c r="BN43" s="106"/>
     </row>
     <row r="44" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="172" t="str">
+      <c r="A44" s="162" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
@@ -7530,15 +7530,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7549,6 +7540,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H43">
@@ -7671,17 +7671,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7689,149 +7689,149 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7865,14 +7865,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -7884,90 +7884,90 @@
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="138" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="137" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="136" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="171"/>
+      <c r="A13" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="172"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="141"/>
       <c r="B15" s="139" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="141"/>
       <c r="B16" s="140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="135" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="142"/>
       <c r="B17" s="140" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="142"/>
       <c r="B18" s="140" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="145"/>
       <c r="B19" s="140" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="141"/>
       <c r="B20" s="139" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="142"/>
       <c r="B21" s="140" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="143"/>
       <c r="B22" s="144" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7975,15 +7975,15 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="171" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="171"/>
+      <c r="A24" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="172"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="143"/>
       <c r="B25" s="140" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7993,19 +7993,19 @@
     <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="143"/>
       <c r="B27" s="161" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="143"/>
       <c r="B28" s="140" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="143"/>
       <c r="B29" s="140" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8015,19 +8015,19 @@
     <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="143"/>
       <c r="B31" s="161" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="143"/>
       <c r="B32" s="140" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="143"/>
       <c r="B33" s="140" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8037,13 +8037,13 @@
     <row r="35" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="143"/>
       <c r="B35" s="140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="143"/>
       <c r="B36" s="146" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8051,32 +8051,32 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="171"/>
+      <c r="A38" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="172"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="140" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="140" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="140" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -8084,21 +8084,21 @@
     </row>
     <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="140" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="171"/>
+      <c r="A49" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="172"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="140" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -8106,123 +8106,123 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="147" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B53" s="140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="147" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="136"/>
       <c r="B55" s="140" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="136"/>
       <c r="B56" s="140" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B57" s="140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="136"/>
       <c r="B58" s="140" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="136"/>
       <c r="B59" s="140" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="147" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="136"/>
       <c r="B61" s="140" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="147" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" s="140" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="148"/>
       <c r="B63" s="140" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="171"/>
+      <c r="A65" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="172"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="140" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="171" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="171"/>
+      <c r="A68" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="172"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" s="156" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="149"/>
       <c r="B70" s="154" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8231,16 +8231,16 @@
     </row>
     <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72" s="156" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="149"/>
       <c r="B73" s="154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8249,16 +8249,16 @@
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75" s="158" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="149"/>
       <c r="B76" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -8267,16 +8267,16 @@
     </row>
     <row r="78" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" s="158" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="149"/>
       <c r="B79" s="138" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8285,28 +8285,28 @@
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81" s="158" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="149"/>
       <c r="B82" s="153" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="149"/>
       <c r="B83" s="153" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="149"/>
       <c r="B84" s="153" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -8315,28 +8315,28 @@
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" s="158" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="149"/>
       <c r="B87" s="138" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="149"/>
       <c r="B88" s="151" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="149"/>
       <c r="B89" s="157" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -8345,21 +8345,21 @@
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91" s="160" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="136"/>
       <c r="B92" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8402,7 +8402,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="44"/>
@@ -8417,14 +8417,14 @@
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -8436,7 +8436,7 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -8448,7 +8448,7 @@
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -8460,7 +8460,7 @@
     <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -8472,7 +8472,7 @@
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -8484,7 +8484,7 @@
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -8496,7 +8496,7 @@
     <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -8508,14 +8508,14 @@
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15"/>
     </row>
